--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Clec1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>51.758751691054</v>
+        <v>5.850914666666667</v>
       </c>
       <c r="H2">
-        <v>51.758751691054</v>
+        <v>17.552744</v>
       </c>
       <c r="I2">
-        <v>0.7019257815777435</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="J2">
-        <v>0.7019257815777435</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.35723680503131</v>
+        <v>16.962351</v>
       </c>
       <c r="N2">
-        <v>4.35723680503131</v>
+        <v>50.88705299999999</v>
       </c>
       <c r="O2">
-        <v>0.7408242831522459</v>
+        <v>0.8940017581354524</v>
       </c>
       <c r="P2">
-        <v>0.7408242831522459</v>
+        <v>0.8940017581354524</v>
       </c>
       <c r="Q2">
-        <v>225.5251378507371</v>
+        <v>99.245268247048</v>
       </c>
       <c r="R2">
-        <v>225.5251378507371</v>
+        <v>893.2074142234319</v>
       </c>
       <c r="S2">
-        <v>0.5200036639634118</v>
+        <v>0.06375929011413281</v>
       </c>
       <c r="T2">
-        <v>0.5200036639634118</v>
+        <v>0.06375929011413281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,111 +596,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>51.758751691054</v>
+        <v>5.850914666666667</v>
       </c>
       <c r="H3">
-        <v>51.758751691054</v>
+        <v>17.552744</v>
       </c>
       <c r="I3">
-        <v>0.7019257815777435</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="J3">
-        <v>0.7019257815777435</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.52436954093111</v>
+        <v>0.4386080000000001</v>
       </c>
       <c r="N3">
-        <v>1.52436954093111</v>
+        <v>1.315824</v>
       </c>
       <c r="O3">
-        <v>0.2591757168477541</v>
+        <v>0.02311686175650265</v>
       </c>
       <c r="P3">
-        <v>0.2591757168477541</v>
+        <v>0.02311686175650265</v>
       </c>
       <c r="Q3">
-        <v>78.8994645544593</v>
+        <v>2.566257980117334</v>
       </c>
       <c r="R3">
-        <v>78.8994645544593</v>
+        <v>23.096321821056</v>
       </c>
       <c r="S3">
-        <v>0.1819221176143318</v>
+        <v>0.001648670913506009</v>
       </c>
       <c r="T3">
-        <v>0.1819221176143318</v>
+        <v>0.001648670913506009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.54551582212953</v>
+        <v>5.850914666666667</v>
       </c>
       <c r="H4">
-        <v>2.54551582212953</v>
+        <v>17.552744</v>
       </c>
       <c r="I4">
-        <v>0.03452098678175053</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="J4">
-        <v>0.03452098678175053</v>
+        <v>0.07131897620325763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.35723680503131</v>
+        <v>1.572550666666667</v>
       </c>
       <c r="N4">
-        <v>4.35723680503131</v>
+        <v>4.717652</v>
       </c>
       <c r="O4">
-        <v>0.7408242831522459</v>
+        <v>0.08288138010804504</v>
       </c>
       <c r="P4">
-        <v>0.7408242831522459</v>
+        <v>0.08288138010804504</v>
       </c>
       <c r="Q4">
-        <v>11.09141522797232</v>
+        <v>9.200859759676446</v>
       </c>
       <c r="R4">
-        <v>11.09141522797232</v>
+        <v>82.80773783708801</v>
       </c>
       <c r="S4">
-        <v>0.02557398528629849</v>
+        <v>0.005911015175618814</v>
       </c>
       <c r="T4">
-        <v>0.02557398528629849</v>
+        <v>0.005911015175618814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.54551582212953</v>
+        <v>51.97575633333333</v>
       </c>
       <c r="H5">
-        <v>2.54551582212953</v>
+        <v>155.927269</v>
       </c>
       <c r="I5">
-        <v>0.03452098678175053</v>
+        <v>0.6335518359551047</v>
       </c>
       <c r="J5">
-        <v>0.03452098678175053</v>
+        <v>0.6335518359551048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.52436954093111</v>
+        <v>16.962351</v>
       </c>
       <c r="N5">
-        <v>1.52436954093111</v>
+        <v>50.88705299999999</v>
       </c>
       <c r="O5">
-        <v>0.2591757168477541</v>
+        <v>0.8940017581354524</v>
       </c>
       <c r="P5">
-        <v>0.2591757168477541</v>
+        <v>0.8940017581354524</v>
       </c>
       <c r="Q5">
-        <v>3.880306785212469</v>
+        <v>881.6310224164729</v>
       </c>
       <c r="R5">
-        <v>3.880306785212469</v>
+        <v>7934.679201748256</v>
       </c>
       <c r="S5">
-        <v>0.008947001495452038</v>
+        <v>0.5663964552138072</v>
       </c>
       <c r="T5">
-        <v>0.008947001495452038</v>
+        <v>0.5663964552138073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4339439181077</v>
+        <v>51.97575633333333</v>
       </c>
       <c r="H6">
-        <v>19.4339439181077</v>
+        <v>155.927269</v>
       </c>
       <c r="I6">
-        <v>0.2635532316405059</v>
+        <v>0.6335518359551047</v>
       </c>
       <c r="J6">
-        <v>0.2635532316405059</v>
+        <v>0.6335518359551048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.35723680503131</v>
+        <v>0.4386080000000001</v>
       </c>
       <c r="N6">
-        <v>4.35723680503131</v>
+        <v>1.315824</v>
       </c>
       <c r="O6">
-        <v>0.7408242831522459</v>
+        <v>0.02311686175650265</v>
       </c>
       <c r="P6">
-        <v>0.7408242831522459</v>
+        <v>0.02311686175650265</v>
       </c>
       <c r="Q6">
-        <v>84.67829570689327</v>
+        <v>22.79698253385067</v>
       </c>
       <c r="R6">
-        <v>84.67829570689327</v>
+        <v>205.172842804656</v>
       </c>
       <c r="S6">
-        <v>0.1952466339025356</v>
+        <v>0.0146457302073526</v>
       </c>
       <c r="T6">
-        <v>0.1952466339025356</v>
+        <v>0.0146457302073526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>51.97575633333333</v>
+      </c>
+      <c r="H7">
+        <v>155.927269</v>
+      </c>
+      <c r="I7">
+        <v>0.6335518359551047</v>
+      </c>
+      <c r="J7">
+        <v>0.6335518359551048</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.572550666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.717652</v>
+      </c>
+      <c r="O7">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="P7">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="Q7">
+        <v>81.73451027248755</v>
+      </c>
+      <c r="R7">
+        <v>735.610592452388</v>
+      </c>
+      <c r="S7">
+        <v>0.05250965053394482</v>
+      </c>
+      <c r="T7">
+        <v>0.05250965053394483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.423415666666667</v>
+      </c>
+      <c r="H8">
+        <v>10.270247</v>
+      </c>
+      <c r="I8">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="J8">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.962351</v>
+      </c>
+      <c r="N8">
+        <v>50.88705299999999</v>
+      </c>
+      <c r="O8">
+        <v>0.8940017581354524</v>
+      </c>
+      <c r="P8">
+        <v>0.8940017581354524</v>
+      </c>
+      <c r="Q8">
+        <v>58.06917815689899</v>
+      </c>
+      <c r="R8">
+        <v>522.6226034120909</v>
+      </c>
+      <c r="S8">
+        <v>0.0373060564215374</v>
+      </c>
+      <c r="T8">
+        <v>0.0373060564215374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.423415666666667</v>
+      </c>
+      <c r="H9">
+        <v>10.270247</v>
+      </c>
+      <c r="I9">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="J9">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4386080000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.315824</v>
+      </c>
+      <c r="O9">
+        <v>0.02311686175650265</v>
+      </c>
+      <c r="P9">
+        <v>0.02311686175650265</v>
+      </c>
+      <c r="Q9">
+        <v>1.501537498725334</v>
+      </c>
+      <c r="R9">
+        <v>13.513837488528</v>
+      </c>
+      <c r="S9">
+        <v>0.0009646501711312116</v>
+      </c>
+      <c r="T9">
+        <v>0.0009646501711312116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.423415666666667</v>
+      </c>
+      <c r="H10">
+        <v>10.270247</v>
+      </c>
+      <c r="I10">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="J10">
+        <v>0.0417292875344492</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.572550666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.717652</v>
+      </c>
+      <c r="O10">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="P10">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="Q10">
+        <v>5.383494588893778</v>
+      </c>
+      <c r="R10">
+        <v>48.451451300044</v>
+      </c>
+      <c r="S10">
+        <v>0.003458580941780589</v>
+      </c>
+      <c r="T10">
+        <v>0.003458580941780589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20.78859333333333</v>
+      </c>
+      <c r="H11">
+        <v>62.36577999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="J11">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.962351</v>
+      </c>
+      <c r="N11">
+        <v>50.88705299999999</v>
+      </c>
+      <c r="O11">
+        <v>0.8940017581354524</v>
+      </c>
+      <c r="P11">
+        <v>0.8940017581354524</v>
+      </c>
+      <c r="Q11">
+        <v>352.6234169162599</v>
+      </c>
+      <c r="R11">
+        <v>3173.610752246339</v>
+      </c>
+      <c r="S11">
+        <v>0.2265399563859748</v>
+      </c>
+      <c r="T11">
+        <v>0.2265399563859748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>19.4339439181077</v>
-      </c>
-      <c r="H7">
-        <v>19.4339439181077</v>
-      </c>
-      <c r="I7">
-        <v>0.2635532316405059</v>
-      </c>
-      <c r="J7">
-        <v>0.2635532316405059</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.52436954093111</v>
-      </c>
-      <c r="N7">
-        <v>1.52436954093111</v>
-      </c>
-      <c r="O7">
-        <v>0.2591757168477541</v>
-      </c>
-      <c r="P7">
-        <v>0.2591757168477541</v>
-      </c>
-      <c r="Q7">
-        <v>29.62451216892677</v>
-      </c>
-      <c r="R7">
-        <v>29.62451216892677</v>
-      </c>
-      <c r="S7">
-        <v>0.06830659773797032</v>
-      </c>
-      <c r="T7">
-        <v>0.06830659773797032</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>20.78859333333333</v>
+      </c>
+      <c r="H12">
+        <v>62.36577999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="J12">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4386080000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.315824</v>
+      </c>
+      <c r="O12">
+        <v>0.02311686175650265</v>
+      </c>
+      <c r="P12">
+        <v>0.02311686175650265</v>
+      </c>
+      <c r="Q12">
+        <v>9.118043344746667</v>
+      </c>
+      <c r="R12">
+        <v>82.06239010272</v>
+      </c>
+      <c r="S12">
+        <v>0.005857810464512829</v>
+      </c>
+      <c r="T12">
+        <v>0.005857810464512829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.78859333333333</v>
+      </c>
+      <c r="H13">
+        <v>62.36577999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="J13">
+        <v>0.2533999003071884</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.572550666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.717652</v>
+      </c>
+      <c r="O13">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="P13">
+        <v>0.08288138010804504</v>
+      </c>
+      <c r="Q13">
+        <v>32.69111630539555</v>
+      </c>
+      <c r="R13">
+        <v>294.22004674856</v>
+      </c>
+      <c r="S13">
+        <v>0.0210021334567008</v>
+      </c>
+      <c r="T13">
+        <v>0.0210021334567008</v>
       </c>
     </row>
   </sheetData>
